--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -474,13 +474,13 @@
     <t>CommunicationRequest not processed because the patient indicates they refuse the service.</t>
   </si>
   <si>
-    <t>np-std-outreach-pending</t>
-  </si>
-  <si>
-    <t>Not Processed - Standard outreach pending</t>
-  </si>
-  <si>
-    <t>CommunicationRequest not processed because conversation was not activated after multiple attempts. Standard outreach communication sent.</t>
+    <t>np-std-care-gap-pending</t>
+  </si>
+  <si>
+    <t>Not Processed - Standard care gap pending</t>
+  </si>
+  <si>
+    <t>CommunicationRequest not processed because conversation was not activated after multiple attempts. Standard care gap communication sent.</t>
   </si>
   <si>
     <t>np-tenant-email-disabled</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-eng-communication-request-status-reason.xlsx
+++ b/CodeSystem-eng-communication-request-status-reason.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/CodeSystem/eng-communication-request-status-reason</t>
+    <t>http://linuxforhealth.org/fhir/cdm/CodeSystem/eng-communication-request-status-reason</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
